--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N2">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q2">
-        <v>175.8040691090338</v>
+        <v>278.2514587105311</v>
       </c>
       <c r="R2">
-        <v>175.8040691090338</v>
+        <v>2504.26312839478</v>
       </c>
       <c r="S2">
-        <v>0.004747471209260764</v>
+        <v>0.00685733292293575</v>
       </c>
       <c r="T2">
-        <v>0.004747471209260764</v>
+        <v>0.00685733292293575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N3">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q3">
-        <v>13154.11115939215</v>
+        <v>13940.35064519561</v>
       </c>
       <c r="R3">
-        <v>13154.11115939215</v>
+        <v>125463.1558067605</v>
       </c>
       <c r="S3">
-        <v>0.3552179669624096</v>
+        <v>0.3435512104035935</v>
       </c>
       <c r="T3">
-        <v>0.3552179669624096</v>
+        <v>0.3435512104035935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H4">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N4">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q4">
-        <v>22.12143946190866</v>
+        <v>24.32614458657067</v>
       </c>
       <c r="R4">
-        <v>22.12143946190866</v>
+        <v>218.935301279136</v>
       </c>
       <c r="S4">
-        <v>0.0005973746653593225</v>
+        <v>0.0005995025971638254</v>
       </c>
       <c r="T4">
-        <v>0.0005973746653593225</v>
+        <v>0.0005995025971638254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H5">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I5">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J5">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N5">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P5">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q5">
-        <v>2276.870149426848</v>
+        <v>2606.789339822744</v>
       </c>
       <c r="R5">
-        <v>2276.870149426848</v>
+        <v>23461.1040584047</v>
       </c>
       <c r="S5">
-        <v>0.06148535432888775</v>
+        <v>0.06424269057191435</v>
       </c>
       <c r="T5">
-        <v>0.06148535432888775</v>
+        <v>0.06424269057191435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N6">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P6">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q6">
-        <v>84.27701622094044</v>
+        <v>126.819770370915</v>
       </c>
       <c r="R6">
-        <v>84.27701622094044</v>
+        <v>1141.377933338235</v>
       </c>
       <c r="S6">
-        <v>0.002275844410991267</v>
+        <v>0.003125393809878753</v>
       </c>
       <c r="T6">
-        <v>0.002275844410991267</v>
+        <v>0.003125393809878752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N7">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P7">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q7">
-        <v>6305.822414523284</v>
+        <v>6353.648875397013</v>
       </c>
       <c r="R7">
-        <v>6305.822414523284</v>
+        <v>57182.83987857312</v>
       </c>
       <c r="S7">
-        <v>0.1702845134096055</v>
+        <v>0.1565816970589871</v>
       </c>
       <c r="T7">
-        <v>0.1702845134096055</v>
+        <v>0.1565816970589871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H8">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J8">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N8">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P8">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q8">
-        <v>10.60458339679026</v>
+        <v>11.087223351048</v>
       </c>
       <c r="R8">
-        <v>10.60458339679026</v>
+        <v>99.78501015943201</v>
       </c>
       <c r="S8">
-        <v>0.000286369676297097</v>
+        <v>0.0002732376752359718</v>
       </c>
       <c r="T8">
-        <v>0.000286369676297097</v>
+        <v>0.0002732376752359717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H9">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J9">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N9">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P9">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q9">
-        <v>1091.4868096552</v>
+        <v>1188.106711151475</v>
       </c>
       <c r="R9">
-        <v>1091.4868096552</v>
+        <v>10692.96040036327</v>
       </c>
       <c r="S9">
-        <v>0.0294748706920554</v>
+        <v>0.02928014575052279</v>
       </c>
       <c r="T9">
-        <v>0.0294748706920554</v>
+        <v>0.02928014575052279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H10">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N10">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P10">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q10">
-        <v>113.2145122602865</v>
+        <v>194.242727021725</v>
       </c>
       <c r="R10">
-        <v>113.2145122602865</v>
+        <v>1748.184543195525</v>
       </c>
       <c r="S10">
-        <v>0.003057282121796979</v>
+        <v>0.004786990347578308</v>
       </c>
       <c r="T10">
-        <v>0.003057282121796979</v>
+        <v>0.004786990347578308</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H11">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I11">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J11">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N11">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P11">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q11">
-        <v>8471.000055206618</v>
+        <v>9731.527509362793</v>
       </c>
       <c r="R11">
-        <v>8471.000055206618</v>
+        <v>87583.74758426515</v>
       </c>
       <c r="S11">
-        <v>0.2287536863028913</v>
+        <v>0.2398274003293941</v>
       </c>
       <c r="T11">
-        <v>0.2287536863028913</v>
+        <v>0.2398274003293941</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H12">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I12">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J12">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N12">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P12">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q12">
-        <v>14.24579073663061</v>
+        <v>16.98167795532</v>
       </c>
       <c r="R12">
-        <v>14.24579073663061</v>
+        <v>152.83510159788</v>
       </c>
       <c r="S12">
-        <v>0.0003846980432140193</v>
+        <v>0.0004185028170898167</v>
       </c>
       <c r="T12">
-        <v>0.0003846980432140193</v>
+        <v>0.0004185028170898167</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H13">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I13">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J13">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N13">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P13">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q13">
-        <v>1466.261530542243</v>
+        <v>1819.756390442125</v>
       </c>
       <c r="R13">
-        <v>1466.261530542243</v>
+        <v>16377.80751397912</v>
       </c>
       <c r="S13">
-        <v>0.03959541116866117</v>
+        <v>0.04484675647606666</v>
       </c>
       <c r="T13">
-        <v>0.03959541116866117</v>
+        <v>0.04484675647606665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H14">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I14">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J14">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N14">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P14">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q14">
-        <v>43.25417749719028</v>
+        <v>70.76663438236668</v>
       </c>
       <c r="R14">
-        <v>43.25417749719028</v>
+        <v>636.8997094413</v>
       </c>
       <c r="S14">
-        <v>0.001168050110494363</v>
+        <v>0.00174399938115111</v>
       </c>
       <c r="T14">
-        <v>0.001168050110494363</v>
+        <v>0.00174399938115111</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H15">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I15">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J15">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N15">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P15">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q15">
-        <v>3236.388451016135</v>
+        <v>3545.396318287874</v>
       </c>
       <c r="R15">
-        <v>3236.388451016135</v>
+        <v>31908.56686459086</v>
       </c>
       <c r="S15">
-        <v>0.08739650379567702</v>
+        <v>0.0873740716793248</v>
       </c>
       <c r="T15">
-        <v>0.08739650379567702</v>
+        <v>0.08737407167932479</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H16">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I16">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J16">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N16">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P16">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q16">
-        <v>5.4426764626552</v>
+        <v>6.186775759840001</v>
       </c>
       <c r="R16">
-        <v>5.4426764626552</v>
+        <v>55.68098183856001</v>
       </c>
       <c r="S16">
-        <v>0.0001469758347387934</v>
+        <v>0.0001524692136435726</v>
       </c>
       <c r="T16">
-        <v>0.0001469758347387934</v>
+        <v>0.0001524692136435726</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H17">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I17">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J17">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.0697834802806</v>
+        <v>17.37449166666667</v>
       </c>
       <c r="N17">
-        <v>16.0697834802806</v>
+        <v>52.123475</v>
       </c>
       <c r="O17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="P17">
-        <v>0.145683263457264</v>
+        <v>0.1547081917640233</v>
       </c>
       <c r="Q17">
-        <v>560.1926399114409</v>
+        <v>662.9748105471667</v>
       </c>
       <c r="R17">
-        <v>560.1926399114409</v>
+        <v>5966.7732949245</v>
       </c>
       <c r="S17">
-        <v>0.01512762726765968</v>
+        <v>0.01633859896551951</v>
       </c>
       <c r="T17">
-        <v>0.01512762726765968</v>
+        <v>0.01633859896551951</v>
       </c>
     </row>
   </sheetData>
